--- a/biology/Botanique/Liste_des_parcs_municipaux_de_Trois-Rivières/Liste_des_parcs_municipaux_de_Trois-Rivières.xlsx
+++ b/biology/Botanique/Liste_des_parcs_municipaux_de_Trois-Rivières/Liste_des_parcs_municipaux_de_Trois-Rivières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_municipaux_de_Trois-Rivi%C3%A8res</t>
+          <t>Liste_des_parcs_municipaux_de_Trois-Rivières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des parcs municipaux de Trois-Rivières, par secteurs de la ville, en ordre alphabétique[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des parcs municipaux de Trois-Rivières, par secteurs de la ville, en ordre alphabétique :
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_municipaux_de_Trois-Rivi%C3%A8res</t>
+          <t>Liste_des_parcs_municipaux_de_Trois-Rivières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Secteur Trois-Rivières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Parc de la 14e rue
@@ -584,7 +598,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_municipaux_de_Trois-Rivi%C3%A8res</t>
+          <t>Liste_des_parcs_municipaux_de_Trois-Rivières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +616,9 @@
           <t>Secteur Trois-Rivières-Ouest</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Parc d'Anjou
@@ -650,7 +666,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_municipaux_de_Trois-Rivi%C3%A8res</t>
+          <t>Liste_des_parcs_municipaux_de_Trois-Rivières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -668,7 +684,9 @@
           <t>Secteur Cap-de-la-Madeleine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Parc de l'Académie les Estacades
@@ -713,7 +731,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_municipaux_de_Trois-Rivi%C3%A8res</t>
+          <t>Liste_des_parcs_municipaux_de_Trois-Rivières</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -731,7 +749,9 @@
           <t>Secteur Saint-Louis-de-France</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Parc Caron
@@ -751,7 +771,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_municipaux_de_Trois-Rivi%C3%A8res</t>
+          <t>Liste_des_parcs_municipaux_de_Trois-Rivières</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -769,7 +789,9 @@
           <t>Secteur Sainte-Marthe-du-Cap</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Parc Jean-Marie-Beaudoin
@@ -789,7 +811,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_municipaux_de_Trois-Rivi%C3%A8res</t>
+          <t>Liste_des_parcs_municipaux_de_Trois-Rivières</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -807,7 +829,9 @@
           <t>Secteur Pointe-du-Lac</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Parc André
